--- a/BackTest/2019-10-26 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-26 BackTest LAMB.xlsx
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -18826,17 +18826,13 @@
         <v>37.84000000000003</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="K527" t="n">
-        <v>37.9</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
@@ -18865,104 +18861,96 @@
         <v>37.90000000000003</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="K528" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="L528" t="inlineStr">
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>38</v>
+      </c>
+      <c r="C529" t="n">
+        <v>38</v>
+      </c>
+      <c r="D529" t="n">
+        <v>38</v>
+      </c>
+      <c r="E529" t="n">
+        <v>38</v>
+      </c>
+      <c r="F529" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G529" t="n">
+        <v>37.90000000000003</v>
+      </c>
+      <c r="H529" t="n">
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>38</v>
+      </c>
+      <c r="K529" t="n">
+        <v>38</v>
+      </c>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>38</v>
+      </c>
+      <c r="C530" t="n">
+        <v>38</v>
+      </c>
+      <c r="D530" t="n">
+        <v>38</v>
+      </c>
+      <c r="E530" t="n">
+        <v>38</v>
+      </c>
+      <c r="F530" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G530" t="n">
+        <v>37.94000000000003</v>
+      </c>
+      <c r="H530" t="n">
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>38</v>
+      </c>
+      <c r="K530" t="n">
+        <v>38</v>
+      </c>
+      <c r="L530" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M528" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>38</v>
-      </c>
-      <c r="C529" t="n">
-        <v>38</v>
-      </c>
-      <c r="D529" t="n">
-        <v>38</v>
-      </c>
-      <c r="E529" t="n">
-        <v>38</v>
-      </c>
-      <c r="F529" t="n">
-        <v>8500</v>
-      </c>
-      <c r="G529" t="n">
-        <v>37.90000000000003</v>
-      </c>
-      <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>0</v>
-      </c>
-      <c r="J529" t="n">
-        <v>38</v>
-      </c>
-      <c r="K529" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M529" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>38</v>
-      </c>
-      <c r="C530" t="n">
-        <v>38</v>
-      </c>
-      <c r="D530" t="n">
-        <v>38</v>
-      </c>
-      <c r="E530" t="n">
-        <v>38</v>
-      </c>
-      <c r="F530" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G530" t="n">
-        <v>37.94000000000003</v>
-      </c>
-      <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>0</v>
-      </c>
-      <c r="J530" t="n">
-        <v>38</v>
-      </c>
-      <c r="K530" t="n">
-        <v>38</v>
-      </c>
-      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19033,237 +19021,201 @@
         <v>37.94000000000003</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>38</v>
-      </c>
-      <c r="K532" t="n">
-        <v>38</v>
-      </c>
-      <c r="L532" t="inlineStr">
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+      <c r="M532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C533" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D533" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E533" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F533" t="n">
+        <v>13062.4287</v>
+      </c>
+      <c r="G533" t="n">
+        <v>37.84000000000002</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C534" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D534" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E534" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F534" t="n">
+        <v>126278</v>
+      </c>
+      <c r="G534" t="n">
+        <v>37.74000000000002</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C535" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D535" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E535" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F535" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G535" t="n">
+        <v>37.64000000000003</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+      <c r="M535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C536" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D536" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E536" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F536" t="n">
+        <v>621.7857</v>
+      </c>
+      <c r="G536" t="n">
+        <v>37.54000000000003</v>
+      </c>
+      <c r="H536" t="n">
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K536" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C537" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D537" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E537" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F537" t="n">
+        <v>6844.7978</v>
+      </c>
+      <c r="G537" t="n">
+        <v>37.44000000000003</v>
+      </c>
+      <c r="H537" t="n">
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K537" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L537" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M532" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C533" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D533" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E533" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F533" t="n">
-        <v>13062.4287</v>
-      </c>
-      <c r="G533" t="n">
-        <v>37.84000000000002</v>
-      </c>
-      <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>0</v>
-      </c>
-      <c r="J533" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="K533" t="n">
-        <v>38</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M533" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C534" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D534" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E534" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F534" t="n">
-        <v>126278</v>
-      </c>
-      <c r="G534" t="n">
-        <v>37.74000000000002</v>
-      </c>
-      <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>0</v>
-      </c>
-      <c r="J534" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K534" t="n">
-        <v>38</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M534" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C535" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D535" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E535" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F535" t="n">
-        <v>10500</v>
-      </c>
-      <c r="G535" t="n">
-        <v>37.64000000000003</v>
-      </c>
-      <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>0</v>
-      </c>
-      <c r="J535" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K535" t="n">
-        <v>38</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M535" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C536" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D536" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E536" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F536" t="n">
-        <v>621.7857</v>
-      </c>
-      <c r="G536" t="n">
-        <v>37.54000000000003</v>
-      </c>
-      <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>0</v>
-      </c>
-      <c r="J536" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K536" t="n">
-        <v>38</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M536" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C537" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D537" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E537" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F537" t="n">
-        <v>6844.7978</v>
-      </c>
-      <c r="G537" t="n">
-        <v>37.44000000000003</v>
-      </c>
-      <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>0</v>
-      </c>
-      <c r="J537" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K537" t="n">
-        <v>38</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19297,10 +19249,10 @@
         <v>0</v>
       </c>
       <c r="J538" t="n">
-        <v>37.9</v>
+        <v>37.2</v>
       </c>
       <c r="K538" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -19340,10 +19292,10 @@
         <v>0</v>
       </c>
       <c r="J539" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="K539" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -19383,10 +19335,10 @@
         <v>0</v>
       </c>
       <c r="J540" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="K540" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -19429,7 +19381,7 @@
         <v>38.8</v>
       </c>
       <c r="K541" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -19463,16 +19415,14 @@
         <v>38.58000000000003</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>38.5</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -19506,16 +19456,14 @@
         <v>38.54000000000003</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>38</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -19549,16 +19497,14 @@
         <v>38.58000000000003</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>38.4</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -19592,16 +19538,14 @@
         <v>38.50000000000004</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>38.4</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -19635,16 +19579,14 @@
         <v>38.32000000000004</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -19678,16 +19620,14 @@
         <v>38.26000000000003</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -19721,16 +19661,14 @@
         <v>38.30000000000003</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>38.4</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-26 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>240289.881779616</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>378276.0984592324</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>290284.1829592324</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>290300.0469592324</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>284392.2152592324</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>261090.0107592324</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>262486.5107592324</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>262486.5107592324</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>262496.6907592324</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>292828.0551592324</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>292828.0551592324</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>263008.0302592324</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>254370.6129592324</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>209614.7209592324</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>209614.7209592324</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>237889.2020592324</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>251181.5518592324</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>239344.0399592324</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>239373.1631592324</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>239373.1631592324</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>250882.178562292</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>250882.178562292</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>236818.745762292</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>152870.353062292</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>143582.829262292</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>133582.829262292</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>133582.829262292</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>91846.21453525855</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-87709.17386474145</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-88971.20786474145</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-100502.9776647414</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-91865.07996474144</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-89792.92046474144</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-71182.92046474144</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-57710.92046474144</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-143453.8346647414</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-158718.5683647415</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-158708.4683647414</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-158708.4683647414</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-158708.4683647414</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-162698.8702647414</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-173708.8702647414</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-173708.8702647414</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-187131.9356583375</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-157402.8963583375</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-165301.5954583375</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-161379.2619583375</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-285614.9032783864</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-265614.9032783864</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-265614.9032783864</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-267349.6531783864</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-249229.0051783864</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-237025.6234445144</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-252315.4660445144</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-246064.9023445144</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-246730.9023445144</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-735272.4473445143</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-705672.4473445143</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-658234.4473445143</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-752084.1732445143</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-418839.9423781778</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-119824.9189781778</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-171384.0219781778</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-259635.3674707704</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-257435.3674707704</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-252049.6495707704</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-72167.54163440684</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-401419.8172054969</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-366015.0856691333</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-366015.0856691333</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-366214.483795597</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-366922.133395597</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-354937.133395597</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-355542.610995597</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-353063.4325955971</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-353874.7366955971</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-390047.9325955971</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-390047.9325955971</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-476534.7341955971</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-504910.3531955971</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-575470.3531955971</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-588470.3531955971</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-588470.3531955971</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-588470.3531955971</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-623208.3531955971</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-623198.2431955971</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-620698.2431955971</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-621208.4131955971</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-648936.4131955971</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-666712.3935955971</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-660807.0516955971</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-707037.0516955971</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-707037.0516955971</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-707037.0516955971</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-675150.9416955971</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-675150.9416955971</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-675150.9416955971</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-678274.1047126288</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-660415.2022736043</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-684692.4857834851</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-684692.4857834851</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-684682.3657834851</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-682428.5082896276</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-741956.6078896276</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-741956.6078896276</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-736441.7578896276</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-738587.2950305011</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-787467.7176305011</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-788958.9591305011</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-788958.9591305011</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-790567.6143305012</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-731215.0010305012</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-675388.1388305011</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-675388.1388305011</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-675388.1388305011</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-675388.1388305011</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-549383.1388305011</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-553352.5120305012</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-526393.1400305012</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-681692.1051305012</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-681692.1051305012</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-688160.4273305011</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-693560.4273305011</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-935725.8230305011</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-89446.81956266417</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-89446.81956266417</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-112747.6183626642</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-112402.4203428622</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19492,202 +19492,208 @@
         <v>-1158903.239622141</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C580" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D580" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E580" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F580" t="n">
+        <v>27556.2433</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-1131346.996322141</v>
+      </c>
+      <c r="H580" t="n">
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J580" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C581" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D581" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E581" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F581" t="n">
+        <v>16466.6066</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-1131346.996322141</v>
+      </c>
+      <c r="H581" t="n">
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J581" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C582" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D582" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E582" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F582" t="n">
+        <v>22643.8166</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-1153990.812922141</v>
+      </c>
+      <c r="H582" t="n">
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J582" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
         <v>38</v>
       </c>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
+      <c r="C583" t="n">
+        <v>38</v>
+      </c>
+      <c r="D583" t="n">
+        <v>38</v>
+      </c>
+      <c r="E583" t="n">
+        <v>38</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-1152990.812922141</v>
+      </c>
+      <c r="H583" t="n">
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J583" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C584" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D584" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E584" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F584" t="n">
+        <v>78433.7723</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-1231424.585222141</v>
+      </c>
+      <c r="H584" t="n">
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>38</v>
+      </c>
+      <c r="J584" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K584" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C580" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D580" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E580" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F580" t="n">
-        <v>27556.2433</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-1131346.996322141</v>
-      </c>
-      <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C581" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D581" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E581" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F581" t="n">
-        <v>16466.6066</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-1131346.996322141</v>
-      </c>
-      <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C582" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D582" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E582" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F582" t="n">
-        <v>22643.8166</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-1153990.812922141</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>38</v>
-      </c>
-      <c r="C583" t="n">
-        <v>38</v>
-      </c>
-      <c r="D583" t="n">
-        <v>38</v>
-      </c>
-      <c r="E583" t="n">
-        <v>38</v>
-      </c>
-      <c r="F583" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-1152990.812922141</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C584" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D584" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E584" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F584" t="n">
-        <v>78433.7723</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-1231424.585222141</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19716,10 +19722,14 @@
         <v>-1231424.585222141</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J585" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19753,10 +19763,14 @@
         <v>-1230460.218622141</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J586" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19790,10 +19804,14 @@
         <v>-1228960.218622141</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J587" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19827,10 +19845,14 @@
         <v>-1228960.218622141</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>38</v>
+      </c>
+      <c r="J588" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19864,12 +19886,14 @@
         <v>-1228960.218622141</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>38</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19903,12 +19927,14 @@
         <v>-1228960.218622141</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>38</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19942,12 +19968,14 @@
         <v>-1350258.039022141</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>38</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19981,12 +20009,14 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>37.7</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20020,12 +20050,14 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>37.5</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20059,12 +20091,14 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>37.5</v>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20098,12 +20132,14 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>37.5</v>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20137,12 +20173,14 @@
         <v>-1370165.265522141</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>37.5</v>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20176,12 +20214,14 @@
         <v>-1369665.265522141</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I597" t="n">
         <v>37.2</v>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20215,12 +20255,14 @@
         <v>-1339524.696622141</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>38.2</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20254,10 +20296,14 @@
         <v>-1305470.696622141</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J599" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20291,10 +20337,14 @@
         <v>-1287371.696622141</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J600" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20328,10 +20378,14 @@
         <v>-1288037.940222141</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J601" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,10 +20419,14 @@
         <v>-1337135.962722141</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="J602" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20402,10 +20460,14 @@
         <v>-1335635.962722141</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>38</v>
+      </c>
+      <c r="J603" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20439,10 +20501,14 @@
         <v>-1338390.520013808</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="J604" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20476,12 +20542,14 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>38.4</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20515,12 +20583,14 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>38.2</v>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20554,12 +20624,14 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>38.2</v>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20593,12 +20665,14 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>38.2</v>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20632,12 +20706,14 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>39.1</v>
       </c>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20671,12 +20747,14 @@
         <v>-1292268.69260264</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>39.1</v>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20713,7 +20791,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,10 +20827,14 @@
         <v>-1293768.69260264</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J612" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,10 +20868,14 @@
         <v>-1292229.917092436</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J613" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20824,7 +20912,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20861,7 +20951,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20898,7 +20990,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,7 +21029,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>37.7</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20947,6 +21043,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-26 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>240289.881779616</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>371619.9442592323</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>318968.8983592323</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>378276.0984592324</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>374838.8106592324</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>290284.1829592324</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>290300.0469592324</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>284392.2152592324</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>259323.6327592324</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>262590.0107592324</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>261090.0107592324</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>261090.0107592324</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>262486.5107592324</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>262486.5107592324</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>262496.6907592324</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>292828.0551592324</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>292828.0551592324</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>263008.0302592324</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>254370.6129592324</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>209614.7209592324</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>209614.7209592324</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>237889.2020592324</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>251181.5518592324</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>239344.0399592324</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>239373.1631592324</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>239373.1631592324</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>250882.178562292</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>250882.178562292</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>152870.353062292</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>143582.829262292</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>133582.829262292</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>133582.829262292</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>91846.21453525855</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-87709.17386474145</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-88971.20786474145</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-100502.9776647414</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-91865.07996474144</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-89792.92046474144</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-71182.92046474144</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-57710.92046474144</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-143453.8346647414</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-158718.5683647415</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-158708.4683647414</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-158708.4683647414</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-158708.4683647414</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-162698.8702647414</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-173708.8702647414</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-173708.8702647414</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-187131.9356583375</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-157402.8963583375</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-165301.5954583375</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-161379.2619583375</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-285614.9032783864</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-265614.9032783864</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-265614.9032783864</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-267349.6531783864</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-249229.0051783864</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-237025.6234445144</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-252315.4660445144</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-246064.9023445144</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-246730.9023445144</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-735272.4473445143</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-705672.4473445143</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-658234.4473445143</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-752084.1732445143</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-979246.0368781778</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-401419.8172054969</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-366015.0856691333</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-366015.0856691333</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-366214.483795597</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-366922.133395597</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-354937.133395597</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-355542.610995597</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-353063.4325955971</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-353874.7366955971</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-390047.9325955971</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-390047.9325955971</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-476534.7341955971</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-504910.3531955971</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-575470.3531955971</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-588470.3531955971</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-588470.3531955971</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-588470.3531955971</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-623208.3531955971</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-623198.2431955971</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-620698.2431955971</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-621208.4131955971</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-648936.4131955971</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-666712.3935955971</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-660807.0516955971</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-707037.0516955971</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-707037.0516955971</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-707037.0516955971</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -9097,10 +9097,14 @@
         <v>-641186.8799823514</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J264" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9133,8 +9137,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9176,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10252,7 +10268,7 @@
         <v>-575536.7232305012</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10301,7 @@
         <v>-577599.9622305011</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10334,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10367,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10400,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10433,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10912,7 +10928,7 @@
         <v>-728587.2950305011</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10978,7 +10994,7 @@
         <v>-738577.1750305011</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11027,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11060,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11176,7 +11192,7 @@
         <v>-788958.9591305011</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11225,7 @@
         <v>-790567.6143305012</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11258,7 @@
         <v>-731215.0010305012</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11291,7 @@
         <v>-748115.0010305012</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11324,7 @@
         <v>-801115.0010305012</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11357,7 @@
         <v>-801105.0010305012</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11390,7 @@
         <v>-801934.2010305012</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11423,7 @@
         <v>-805934.2010305012</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11572,7 +11588,7 @@
         <v>-788534.2010305012</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13057,7 +13073,7 @@
         <v>-980169.1302305011</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13552,11 +13568,17 @@
         <v>-1146480.756306328</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13611,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13648,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13685,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13722,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13759,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13796,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +13833,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13870,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +13907,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +13944,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +13981,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14018,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14055,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14092,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14129,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14166,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14203,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14240,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14277,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14314,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14351,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14388,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14425,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14462,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14499,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14536,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14573,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14610,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14647,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14684,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14721,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14758,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14795,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14832,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14869,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14906,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14943,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +14980,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15017,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15054,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15091,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15128,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15165,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15202,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15239,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15276,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15313,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15350,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15387,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15424,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15461,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15498,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15535,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15572,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15609,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15646,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +15683,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +15720,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +15757,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +15794,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +15831,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +15868,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +15905,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +15942,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +15979,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +16016,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16053,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16090,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16127,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16164,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16201,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16238,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16275,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16312,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16349,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16386,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16423,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16460,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16497,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16534,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +16571,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +16608,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16645,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +16682,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +16719,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16756,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16793,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16830,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16867,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16904,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16941,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16978,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17015,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17052,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17089,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17126,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17163,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17200,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17237,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17274,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17311,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17348,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17385,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17422,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17459,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17496,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17533,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17570,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17607,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,14 +17640,16 @@
         <v>-78261.95556266417</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="n">
-        <v>1</v>
-      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="inlineStr"/>
     </row>
     <row r="510">
@@ -17215,7 +17675,7 @@
         <v>-78251.83556266417</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17708,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17741,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17774,7 @@
         <v>-112747.6183626642</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17807,7 @@
         <v>-112402.4203428622</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19525,14 +19985,10 @@
         <v>-1131346.996322141</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J580" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
@@ -19562,19 +20018,11 @@
         <v>-1131346.996322141</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="J581" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19603,19 +20051,11 @@
         <v>-1153990.812922141</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="J582" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19644,14 +20084,10 @@
         <v>-1152990.812922141</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="J583" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
@@ -19681,388 +20117,314 @@
         <v>-1231424.585222141</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C585" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D585" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E585" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F585" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-1231424.585222141</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C586" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D586" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E586" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F586" t="n">
+        <v>964.3665999999999</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-1230460.218622141</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C587" t="n">
         <v>38</v>
       </c>
-      <c r="J584" t="n">
+      <c r="D587" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E587" t="n">
+        <v>38</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-1228960.218622141</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>38</v>
+      </c>
+      <c r="C588" t="n">
+        <v>38</v>
+      </c>
+      <c r="D588" t="n">
+        <v>38</v>
+      </c>
+      <c r="E588" t="n">
+        <v>38</v>
+      </c>
+      <c r="F588" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-1228960.218622141</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>38</v>
+      </c>
+      <c r="C589" t="n">
+        <v>38</v>
+      </c>
+      <c r="D589" t="n">
+        <v>38</v>
+      </c>
+      <c r="E589" t="n">
+        <v>38</v>
+      </c>
+      <c r="F589" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-1228960.218622141</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>38</v>
+      </c>
+      <c r="C590" t="n">
+        <v>38</v>
+      </c>
+      <c r="D590" t="n">
+        <v>38</v>
+      </c>
+      <c r="E590" t="n">
+        <v>38</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3337</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-1228960.218622141</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>38</v>
+      </c>
+      <c r="C591" t="n">
         <v>37.7</v>
       </c>
-      <c r="K584" t="inlineStr">
+      <c r="D591" t="n">
+        <v>38</v>
+      </c>
+      <c r="E591" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F591" t="n">
+        <v>121297.8204</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-1350258.039022141</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C592" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D592" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E592" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F592" t="n">
+        <v>13062.4287</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-1363320.467722141</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C593" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D593" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E593" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F593" t="n">
+        <v>126278</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-1363320.467722141</v>
+      </c>
+      <c r="H593" t="n">
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C585" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D585" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E585" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F585" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-1231424.585222141</v>
-      </c>
-      <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="J585" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C586" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D586" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E586" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F586" t="n">
-        <v>964.3665999999999</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-1230460.218622141</v>
-      </c>
-      <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="J586" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C587" t="n">
-        <v>38</v>
-      </c>
-      <c r="D587" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E587" t="n">
-        <v>38</v>
-      </c>
-      <c r="F587" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-1228960.218622141</v>
-      </c>
-      <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="J587" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>38</v>
-      </c>
-      <c r="C588" t="n">
-        <v>38</v>
-      </c>
-      <c r="D588" t="n">
-        <v>38</v>
-      </c>
-      <c r="E588" t="n">
-        <v>38</v>
-      </c>
-      <c r="F588" t="n">
-        <v>8500</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-1228960.218622141</v>
-      </c>
-      <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>38</v>
-      </c>
-      <c r="J588" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>38</v>
-      </c>
-      <c r="C589" t="n">
-        <v>38</v>
-      </c>
-      <c r="D589" t="n">
-        <v>38</v>
-      </c>
-      <c r="E589" t="n">
-        <v>38</v>
-      </c>
-      <c r="F589" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-1228960.218622141</v>
-      </c>
-      <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>38</v>
-      </c>
-      <c r="J589" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>38</v>
-      </c>
-      <c r="C590" t="n">
-        <v>38</v>
-      </c>
-      <c r="D590" t="n">
-        <v>38</v>
-      </c>
-      <c r="E590" t="n">
-        <v>38</v>
-      </c>
-      <c r="F590" t="n">
-        <v>3337</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-1228960.218622141</v>
-      </c>
-      <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>38</v>
-      </c>
-      <c r="J590" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>38</v>
-      </c>
-      <c r="C591" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D591" t="n">
-        <v>38</v>
-      </c>
-      <c r="E591" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F591" t="n">
-        <v>121297.8204</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-1350258.039022141</v>
-      </c>
-      <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>38</v>
-      </c>
-      <c r="J591" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C592" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D592" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E592" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F592" t="n">
-        <v>13062.4287</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-1363320.467722141</v>
-      </c>
-      <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="J592" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C593" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D593" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E593" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F593" t="n">
-        <v>126278</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-1363320.467722141</v>
-      </c>
-      <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="J593" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20096,9 +20458,7 @@
       <c r="I594" t="n">
         <v>37.5</v>
       </c>
-      <c r="J594" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20137,9 +20497,7 @@
       <c r="I595" t="n">
         <v>37.5</v>
       </c>
-      <c r="J595" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20178,9 +20536,7 @@
       <c r="I596" t="n">
         <v>37.5</v>
       </c>
-      <c r="J596" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20219,9 +20575,7 @@
       <c r="I597" t="n">
         <v>37.2</v>
       </c>
-      <c r="J597" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20260,9 +20614,7 @@
       <c r="I598" t="n">
         <v>38.2</v>
       </c>
-      <c r="J598" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20296,14 +20648,10 @@
         <v>-1305470.696622141</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="J599" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20337,14 +20685,10 @@
         <v>-1287371.696622141</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J600" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20378,14 +20722,10 @@
         <v>-1288037.940222141</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J601" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20419,14 +20759,10 @@
         <v>-1337135.962722141</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J602" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20460,14 +20796,10 @@
         <v>-1335635.962722141</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>38</v>
-      </c>
-      <c r="J603" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20501,14 +20833,10 @@
         <v>-1338390.520013808</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J604" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20542,14 +20870,10 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="J605" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20583,14 +20907,10 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J606" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20624,14 +20944,10 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J607" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20665,14 +20981,10 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J608" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20706,14 +21018,10 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J609" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,14 +21055,10 @@
         <v>-1292268.69260264</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J610" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20791,9 +21095,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20827,14 +21129,10 @@
         <v>-1293768.69260264</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J612" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20868,14 +21166,10 @@
         <v>-1292229.917092436</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J613" t="n">
-        <v>37.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20912,9 +21206,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20951,9 +21243,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20990,9 +21280,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21029,9 +21317,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>37.7</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21043,6 +21329,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-26 BackTest LAMB.xlsx
@@ -550,7 +550,7 @@
         <v>371619.9442592323</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>318968.8983592323</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>378276.0984592324</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>374838.8106592324</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>290284.1829592324</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>290300.0469592324</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>284392.2152592324</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>259323.6327592324</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>262590.0107592324</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>261090.0107592324</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-87709.17386474145</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-979246.0368781778</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-171384.0219781778</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-259635.3674707704</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-72167.54163440684</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-72177.54163440684</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-62371.83633440683</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-64830.66093440683</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-128041.6609344068</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-123377.5409344068</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-150468.9045344068</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-367032.3982344068</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-381743.8167344069</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-381743.8167344069</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-394956.8049344069</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -9097,14 +9097,10 @@
         <v>-641186.8799823514</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J264" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9137,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9176,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10268,7 +10252,7 @@
         <v>-575536.7232305012</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10301,7 +10285,7 @@
         <v>-577599.9622305011</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10334,7 +10318,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10367,7 +10351,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10400,7 +10384,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10433,7 +10417,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10928,7 +10912,7 @@
         <v>-728587.2950305011</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10994,7 +10978,7 @@
         <v>-738577.1750305011</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11027,7 +11011,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11060,7 +11044,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11192,7 +11176,7 @@
         <v>-788958.9591305011</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11225,7 +11209,7 @@
         <v>-790567.6143305012</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11258,7 +11242,7 @@
         <v>-731215.0010305012</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11291,7 +11275,7 @@
         <v>-748115.0010305012</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11324,7 +11308,7 @@
         <v>-801115.0010305012</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11357,7 +11341,7 @@
         <v>-801105.0010305012</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11390,7 +11374,7 @@
         <v>-801934.2010305012</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11423,7 +11407,7 @@
         <v>-805934.2010305012</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11588,7 +11572,7 @@
         <v>-788534.2010305012</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13073,7 +13057,7 @@
         <v>-980169.1302305011</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13568,17 +13552,11 @@
         <v>-1146480.756306328</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13611,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13648,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13685,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13722,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13759,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13796,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13833,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13870,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13907,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13944,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14018,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14055,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14092,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14129,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14166,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14203,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14240,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14351,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14388,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14425,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14462,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14573,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14610,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14647,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14721,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14758,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14795,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14943,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15017,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15091,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15128,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15165,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15239,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15313,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15350,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15387,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15646,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15683,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15794,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15831,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15868,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15942,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15979,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16016,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16053,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16090,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16127,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16164,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16201,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16238,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16312,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16349,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16386,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16460,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16497,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16534,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16571,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16608,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16682,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16719,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16756,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16793,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16830,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16867,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16904,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16941,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17015,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17163,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17274,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17385,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17422,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17459,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17496,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17533,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17570,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17640,16 +17182,14 @@
         <v>-78261.95556266417</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="n">
+        <v>1</v>
+      </c>
       <c r="M509" t="inlineStr"/>
     </row>
     <row r="510">
@@ -17675,7 +17215,7 @@
         <v>-78251.83556266417</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17708,7 +17248,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17741,7 +17281,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17774,7 +17314,7 @@
         <v>-112747.6183626642</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17807,7 +17347,7 @@
         <v>-112402.4203428622</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20414,286 +19954,270 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
         <v>37.5</v>
       </c>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
+      <c r="C594" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D594" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E594" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F594" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-1363320.467722141</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C595" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D595" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E595" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F595" t="n">
+        <v>621.7857</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-1363320.467722141</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C596" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D596" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E596" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F596" t="n">
+        <v>6844.7978</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-1370165.265522141</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C597" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D597" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E597" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F597" t="n">
+        <v>500</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-1369665.265522141</v>
+      </c>
+      <c r="H597" t="n">
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="J597" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C598" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D598" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E598" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F598" t="n">
+        <v>30140.5689</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-1339524.696622141</v>
+      </c>
+      <c r="H598" t="n">
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J598" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C599" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D599" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E599" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F599" t="n">
+        <v>34054</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-1305470.696622141</v>
+      </c>
+      <c r="H599" t="n">
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J599" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C600" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D600" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E600" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F600" t="n">
+        <v>18099</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-1287371.696622141</v>
+      </c>
+      <c r="H600" t="n">
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J600" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K600" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C594" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D594" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E594" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F594" t="n">
-        <v>10500</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-1363320.467722141</v>
-      </c>
-      <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C595" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D595" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E595" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F595" t="n">
-        <v>621.7857</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-1363320.467722141</v>
-      </c>
-      <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C596" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D596" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E596" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F596" t="n">
-        <v>6844.7978</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-1370165.265522141</v>
-      </c>
-      <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C597" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D597" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E597" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F597" t="n">
-        <v>500</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-1369665.265522141</v>
-      </c>
-      <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C598" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="D598" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E598" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F598" t="n">
-        <v>30140.5689</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-1339524.696622141</v>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C599" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="D599" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="E599" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F599" t="n">
-        <v>34054</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-1305470.696622141</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="C600" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D600" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="E600" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F600" t="n">
-        <v>18099</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-1287371.696622141</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20722,10 +20246,14 @@
         <v>-1288037.940222141</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J601" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20759,10 +20287,14 @@
         <v>-1337135.962722141</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="J602" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20796,10 +20328,14 @@
         <v>-1335635.962722141</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>38</v>
+      </c>
+      <c r="J603" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,10 +20369,14 @@
         <v>-1338390.520013808</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="J604" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20870,10 +20410,14 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="J605" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20907,10 +20451,14 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J606" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20944,10 +20492,14 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J607" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20981,10 +20533,14 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J608" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21018,10 +20574,14 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J609" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21055,10 +20615,14 @@
         <v>-1292268.69260264</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J610" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21092,10 +20656,14 @@
         <v>-1293768.69260264</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J611" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21129,10 +20697,14 @@
         <v>-1293768.69260264</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J612" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21166,10 +20738,14 @@
         <v>-1292229.917092436</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J613" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21203,10 +20779,14 @@
         <v>-1292429.917092436</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J614" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21240,10 +20820,14 @@
         <v>-1293028.917092436</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J615" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21277,10 +20861,14 @@
         <v>-1294028.917092436</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>39</v>
+      </c>
+      <c r="J616" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21314,10 +20902,14 @@
         <v>-1294028.917092436</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J617" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
